--- a/students.xlsx
+++ b/students.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t xml:space="preserve">student_id</t>
   </si>
@@ -59,6 +59,15 @@
   </si>
   <si>
     <t xml:space="preserve">IT618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tudu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rutvij</t>
   </si>
 </sst>
 </file>
@@ -417,10 +426,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -526,6 +535,90 @@
         <v>12</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>201612003</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>201612003</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>201612013</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>201612013</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>201612013</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>201612005</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
